--- a/PAKISTAN_cleaned_data_reports_papers/province_level/province_estimates_notifications_2022.xlsx
+++ b/PAKISTAN_cleaned_data_reports_papers/province_level/province_estimates_notifications_2022.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAA72E5-18B6-4772-ABD5-DF9D57F29EFA}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaraantoniassi/Documents/dspp_capstone_msf/PAKISTAN_cleaned_data_reports_papers/province_level/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1CF1F-4EE4-1B48-8E46-1DDCC3021705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25820" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,14 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,26 +499,26 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,332 +556,332 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>577300</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>327969</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>194764</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>133205</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>154</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0.41</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>592043</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>264074</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>298530</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>187658</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>111597</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>76061</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.64</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>168</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.41</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>304360</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>116702</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>129944</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>74695</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>37462</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>37233</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.61</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>161</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>133211</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>58516</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2022</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>96401</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45321</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>30811</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>14510</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.47</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>223</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.32</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>99619</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>54298</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>33498</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>11085</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>7257</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>3828</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.33</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>89</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.35</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>35083</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>23998</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>10978</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4354</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>746</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.47</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>125</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>10720</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>5620</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2504</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2614</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2138</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>476</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1.05</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>277</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.18</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>3733</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>1119</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5445</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1496</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1145</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>351</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>75</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.23</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>5317</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>3821</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
